--- a/biology/Zoologie/Callambulyx_poecilus/Callambulyx_poecilus.xlsx
+++ b/biology/Zoologie/Callambulyx_poecilus/Callambulyx_poecilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callambulyx poecilus est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Smerinthini et du genre Callambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie autour de 77 mm. L'espèce est semblable à Callambulyx rubricosa, mais s'en distingue au niveau de la face dorsale par le marquage sombre du coin inférieur de l'aile postérieure.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est connue au sud de l'Himalaya, au nord du Pakistan, au Népal , en passant par le nord-est de l'Inde et le sud de la Chine (Yunnan et l'île de Hainan), au sud jusqu'au nord de la Thaïlande, au Vietnam, au nord de Sumatra.
@@ -574,12 +590,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Callambulyx poecilus a été décrite par l'entomologistes Lionel Walter Rothschild en 1898, sous le nom initial d'Ambulyx poecilus[1].
-La localité type est Murree, Pakistan.
-Synonymie
-Ambulyx poecilus Rothschild, 1898</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Callambulyx poecilus a été décrite par l'entomologistes Lionel Walter Rothschild en 1898, sous le nom initial d'Ambulyx poecilus.
+La localité type est Murree, Pakistan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callambulyx_poecilus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callambulyx_poecilus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ambulyx poecilus Rothschild, 1898</t>
         </is>
       </c>
     </row>
